--- a/data/panelapp/au/Anophthalmia_Microphthalmia_Coloboma.xlsx
+++ b/data/panelapp/au/Anophthalmia_Microphthalmia_Coloboma.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E82"/>
+  <dimension ref="A1:F83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,6 +454,11 @@
           <t>panel</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>time_taken</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -479,6 +484,11 @@
           <t>Anophthalmia_Microphthalmia_Coloboma</t>
         </is>
       </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:07.228697</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -504,6 +514,11 @@
           <t>Anophthalmia_Microphthalmia_Coloboma</t>
         </is>
       </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:07.228708</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -529,6 +544,11 @@
           <t>Anophthalmia_Microphthalmia_Coloboma</t>
         </is>
       </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:07.228712</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -554,6 +574,11 @@
           <t>Anophthalmia_Microphthalmia_Coloboma</t>
         </is>
       </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:07.228715</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -579,6 +604,11 @@
           <t>Anophthalmia_Microphthalmia_Coloboma</t>
         </is>
       </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:07.228718</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -604,6 +634,11 @@
           <t>Anophthalmia_Microphthalmia_Coloboma</t>
         </is>
       </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:07.228720</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -629,6 +664,11 @@
           <t>Anophthalmia_Microphthalmia_Coloboma</t>
         </is>
       </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:07.228723</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -654,6 +694,11 @@
           <t>Anophthalmia_Microphthalmia_Coloboma</t>
         </is>
       </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:07.228725</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -679,6 +724,11 @@
           <t>Anophthalmia_Microphthalmia_Coloboma</t>
         </is>
       </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:07.228728</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -704,6 +754,11 @@
           <t>Anophthalmia_Microphthalmia_Coloboma</t>
         </is>
       </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:07.228731</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -729,6 +784,11 @@
           <t>Anophthalmia_Microphthalmia_Coloboma</t>
         </is>
       </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:07.228734</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -754,6 +814,11 @@
           <t>Anophthalmia_Microphthalmia_Coloboma</t>
         </is>
       </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:07.228736</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -779,6 +844,11 @@
           <t>Anophthalmia_Microphthalmia_Coloboma</t>
         </is>
       </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:07.228739</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -804,6 +874,11 @@
           <t>Anophthalmia_Microphthalmia_Coloboma</t>
         </is>
       </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:07.228741</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -829,6 +904,11 @@
           <t>Anophthalmia_Microphthalmia_Coloboma</t>
         </is>
       </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:07.228744</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -854,6 +934,11 @@
           <t>Anophthalmia_Microphthalmia_Coloboma</t>
         </is>
       </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:07.228746</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -879,6 +964,11 @@
           <t>Anophthalmia_Microphthalmia_Coloboma</t>
         </is>
       </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:07.228749</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -904,6 +994,11 @@
           <t>Anophthalmia_Microphthalmia_Coloboma</t>
         </is>
       </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:07.228752</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -929,6 +1024,11 @@
           <t>Anophthalmia_Microphthalmia_Coloboma</t>
         </is>
       </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:07.228755</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -954,6 +1054,11 @@
           <t>Anophthalmia_Microphthalmia_Coloboma</t>
         </is>
       </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:07.228757</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -979,6 +1084,11 @@
           <t>Anophthalmia_Microphthalmia_Coloboma</t>
         </is>
       </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:07.228760</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1004,6 +1114,11 @@
           <t>Anophthalmia_Microphthalmia_Coloboma</t>
         </is>
       </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:07.228762</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1029,6 +1144,11 @@
           <t>Anophthalmia_Microphthalmia_Coloboma</t>
         </is>
       </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:07.228765</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1054,6 +1174,11 @@
           <t>Anophthalmia_Microphthalmia_Coloboma</t>
         </is>
       </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:07.228768</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1079,6 +1204,11 @@
           <t>Anophthalmia_Microphthalmia_Coloboma</t>
         </is>
       </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:07.228771</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1104,6 +1234,11 @@
           <t>Anophthalmia_Microphthalmia_Coloboma</t>
         </is>
       </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:07.228773</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1129,6 +1264,11 @@
           <t>Anophthalmia_Microphthalmia_Coloboma</t>
         </is>
       </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:07.228776</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1154,6 +1294,11 @@
           <t>Anophthalmia_Microphthalmia_Coloboma</t>
         </is>
       </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:07.228779</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1179,6 +1324,11 @@
           <t>Anophthalmia_Microphthalmia_Coloboma</t>
         </is>
       </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:07.228781</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1204,6 +1354,11 @@
           <t>Anophthalmia_Microphthalmia_Coloboma</t>
         </is>
       </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:07.228784</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1229,6 +1384,11 @@
           <t>Anophthalmia_Microphthalmia_Coloboma</t>
         </is>
       </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:07.228786</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1254,6 +1414,11 @@
           <t>Anophthalmia_Microphthalmia_Coloboma</t>
         </is>
       </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:07.228789</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1279,6 +1444,11 @@
           <t>Anophthalmia_Microphthalmia_Coloboma</t>
         </is>
       </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:07.228792</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1304,6 +1474,11 @@
           <t>Anophthalmia_Microphthalmia_Coloboma</t>
         </is>
       </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:07.228794</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1329,6 +1504,11 @@
           <t>Anophthalmia_Microphthalmia_Coloboma</t>
         </is>
       </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:07.228797</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1354,6 +1534,11 @@
           <t>Anophthalmia_Microphthalmia_Coloboma</t>
         </is>
       </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:07.228800</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1379,6 +1564,11 @@
           <t>Anophthalmia_Microphthalmia_Coloboma</t>
         </is>
       </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:07.228802</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1404,6 +1594,11 @@
           <t>Anophthalmia_Microphthalmia_Coloboma</t>
         </is>
       </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:07.228805</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1429,6 +1624,11 @@
           <t>Anophthalmia_Microphthalmia_Coloboma</t>
         </is>
       </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:07.228807</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1454,6 +1654,11 @@
           <t>Anophthalmia_Microphthalmia_Coloboma</t>
         </is>
       </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:07.228810</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1479,6 +1684,11 @@
           <t>Anophthalmia_Microphthalmia_Coloboma</t>
         </is>
       </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:07.228813</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1504,6 +1714,11 @@
           <t>Anophthalmia_Microphthalmia_Coloboma</t>
         </is>
       </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:07.228815</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1529,6 +1744,11 @@
           <t>Anophthalmia_Microphthalmia_Coloboma</t>
         </is>
       </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:07.228818</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1554,6 +1774,11 @@
           <t>Anophthalmia_Microphthalmia_Coloboma</t>
         </is>
       </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:07.228821</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1579,6 +1804,11 @@
           <t>Anophthalmia_Microphthalmia_Coloboma</t>
         </is>
       </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:07.228824</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1604,6 +1834,11 @@
           <t>Anophthalmia_Microphthalmia_Coloboma</t>
         </is>
       </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:07.228826</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1629,6 +1864,11 @@
           <t>Anophthalmia_Microphthalmia_Coloboma</t>
         </is>
       </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:07.228829</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1654,6 +1894,11 @@
           <t>Anophthalmia_Microphthalmia_Coloboma</t>
         </is>
       </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:07.228831</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1679,6 +1924,11 @@
           <t>Anophthalmia_Microphthalmia_Coloboma</t>
         </is>
       </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:07.228834</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1704,6 +1954,11 @@
           <t>Anophthalmia_Microphthalmia_Coloboma</t>
         </is>
       </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:07.228836</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1729,6 +1984,11 @@
           <t>Anophthalmia_Microphthalmia_Coloboma</t>
         </is>
       </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:07.228839</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -1754,6 +2014,11 @@
           <t>Anophthalmia_Microphthalmia_Coloboma</t>
         </is>
       </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:07.228841</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1779,6 +2044,11 @@
           <t>Anophthalmia_Microphthalmia_Coloboma</t>
         </is>
       </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:07.228844</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -1804,6 +2074,11 @@
           <t>Anophthalmia_Microphthalmia_Coloboma</t>
         </is>
       </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:07.228847</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -1829,6 +2104,11 @@
           <t>Anophthalmia_Microphthalmia_Coloboma</t>
         </is>
       </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:07.228849</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -1854,6 +2134,11 @@
           <t>Anophthalmia_Microphthalmia_Coloboma</t>
         </is>
       </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:07.228852</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -1879,6 +2164,11 @@
           <t>Anophthalmia_Microphthalmia_Coloboma</t>
         </is>
       </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:07.228854</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -1904,6 +2194,11 @@
           <t>Anophthalmia_Microphthalmia_Coloboma</t>
         </is>
       </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:07.228857</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -1929,6 +2224,11 @@
           <t>Anophthalmia_Microphthalmia_Coloboma</t>
         </is>
       </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:07.228859</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -1954,6 +2254,11 @@
           <t>Anophthalmia_Microphthalmia_Coloboma</t>
         </is>
       </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:07.228862</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -1979,6 +2284,11 @@
           <t>Anophthalmia_Microphthalmia_Coloboma</t>
         </is>
       </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:07.228864</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2004,6 +2314,11 @@
           <t>Anophthalmia_Microphthalmia_Coloboma</t>
         </is>
       </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:07.228867</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2029,6 +2344,11 @@
           <t>Anophthalmia_Microphthalmia_Coloboma</t>
         </is>
       </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:07.228869</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2054,6 +2374,11 @@
           <t>Anophthalmia_Microphthalmia_Coloboma</t>
         </is>
       </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:07.228872</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2079,6 +2404,11 @@
           <t>Anophthalmia_Microphthalmia_Coloboma</t>
         </is>
       </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:07.228875</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2104,6 +2434,11 @@
           <t>Anophthalmia_Microphthalmia_Coloboma</t>
         </is>
       </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:07.228878</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2129,6 +2464,11 @@
           <t>Anophthalmia_Microphthalmia_Coloboma</t>
         </is>
       </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:07.228881</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2154,6 +2494,11 @@
           <t>Anophthalmia_Microphthalmia_Coloboma</t>
         </is>
       </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:07.228883</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2161,12 +2506,12 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>YAP1</t>
+          <t>WLS</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Yes associated protein 1</t>
+          <t>wntless Wnt ligand secretion mediator</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2177,6 +2522,11 @@
       <c r="E70" t="inlineStr">
         <is>
           <t>Anophthalmia_Microphthalmia_Coloboma</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:07.228885</t>
         </is>
       </c>
     </row>
@@ -2186,22 +2536,27 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>C16orf62</t>
+          <t>YAP1</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>chromosome 16 open reading frame 62</t>
+          <t>Yes associated protein 1</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
           <t>Anophthalmia_Microphthalmia_Coloboma</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:07.228888</t>
         </is>
       </c>
     </row>
@@ -2211,12 +2566,12 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>CDON</t>
+          <t>C16orf62</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>cell adhesion associated, oncogene regulated</t>
+          <t>chromosome 16 open reading frame 62</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2227,6 +2582,11 @@
       <c r="E72" t="inlineStr">
         <is>
           <t>Anophthalmia_Microphthalmia_Coloboma</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:07.228891</t>
         </is>
       </c>
     </row>
@@ -2236,12 +2596,12 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>RPGRIP1L</t>
+          <t>CDON</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>RPGRIP1 like</t>
+          <t>cell adhesion associated, oncogene regulated</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2252,6 +2612,11 @@
       <c r="E73" t="inlineStr">
         <is>
           <t>Anophthalmia_Microphthalmia_Coloboma</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:07.228893</t>
         </is>
       </c>
     </row>
@@ -2261,12 +2626,12 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>TOGARAM1</t>
+          <t>RPGRIP1L</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>TOG array regulator of axonemal microtubules 1</t>
+          <t>RPGRIP1 like</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2277,6 +2642,11 @@
       <c r="E74" t="inlineStr">
         <is>
           <t>Anophthalmia_Microphthalmia_Coloboma</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:07.228895</t>
         </is>
       </c>
     </row>
@@ -2286,22 +2656,27 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>ABCB6</t>
+          <t>TOGARAM1</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>ATP binding cassette subfamily B member 6 (Langereis blood group)</t>
+          <t>TOG array regulator of axonemal microtubules 1</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
           <t>Anophthalmia_Microphthalmia_Coloboma</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:07.228898</t>
         </is>
       </c>
     </row>
@@ -2311,12 +2686,12 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>HESX1</t>
+          <t>ABCB6</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>HESX homeobox 1</t>
+          <t>ATP binding cassette subfamily B member 6 (Langereis blood group)</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2327,6 +2702,11 @@
       <c r="E76" t="inlineStr">
         <is>
           <t>Anophthalmia_Microphthalmia_Coloboma</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:07.228900</t>
         </is>
       </c>
     </row>
@@ -2336,12 +2716,12 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>KIF17</t>
+          <t>HESX1</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>kinesin family member 17</t>
+          <t>HESX homeobox 1</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2352,6 +2732,11 @@
       <c r="E77" t="inlineStr">
         <is>
           <t>Anophthalmia_Microphthalmia_Coloboma</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:07.228903</t>
         </is>
       </c>
     </row>
@@ -2361,12 +2746,12 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>RARA</t>
+          <t>KIF17</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>retinoic acid receptor alpha</t>
+          <t>kinesin family member 17</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2377,6 +2762,11 @@
       <c r="E78" t="inlineStr">
         <is>
           <t>Anophthalmia_Microphthalmia_Coloboma</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:07.228907</t>
         </is>
       </c>
     </row>
@@ -2386,12 +2776,12 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>SALL2</t>
+          <t>RARA</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>spalt like transcription factor 2</t>
+          <t>retinoic acid receptor alpha</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2402,6 +2792,11 @@
       <c r="E79" t="inlineStr">
         <is>
           <t>Anophthalmia_Microphthalmia_Coloboma</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:07.228910</t>
         </is>
       </c>
     </row>
@@ -2411,12 +2806,12 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>TENM1</t>
+          <t>SALL2</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>teneurin transmembrane protein 1</t>
+          <t>spalt like transcription factor 2</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2427,6 +2822,11 @@
       <c r="E80" t="inlineStr">
         <is>
           <t>Anophthalmia_Microphthalmia_Coloboma</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:07.228913</t>
         </is>
       </c>
     </row>
@@ -2436,12 +2836,12 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>VAX1</t>
+          <t>TENM1</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>ventral anterior homeobox 1</t>
+          <t>teneurin transmembrane protein 1</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -2452,6 +2852,11 @@
       <c r="E81" t="inlineStr">
         <is>
           <t>Anophthalmia_Microphthalmia_Coloboma</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:07.228915</t>
         </is>
       </c>
     </row>
@@ -2461,22 +2866,57 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
+          <t>VAX1</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>ventral anterior homeobox 1</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>Anophthalmia_Microphthalmia_Coloboma</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:07.228918</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
           <t>PACS1</t>
         </is>
       </c>
-      <c r="C82" t="inlineStr">
+      <c r="C83" t="inlineStr">
         <is>
           <t>phosphofurin acidic cluster sorting protein 1</t>
         </is>
       </c>
-      <c r="D82" t="inlineStr">
+      <c r="D83" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>Anophthalmia_Microphthalmia_Coloboma</t>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>Anophthalmia_Microphthalmia_Coloboma</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:07.228920</t>
         </is>
       </c>
     </row>

--- a/data/panelapp/au/Anophthalmia_Microphthalmia_Coloboma.xlsx
+++ b/data/panelapp/au/Anophthalmia_Microphthalmia_Coloboma.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="metadata" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -486,7 +487,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:07.228697</t>
+          <t>2021-10-05 14:33:09.192694</t>
         </is>
       </c>
     </row>
@@ -516,7 +517,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:07.228708</t>
+          <t>2021-10-05 14:33:09.192702</t>
         </is>
       </c>
     </row>
@@ -546,7 +547,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:07.228712</t>
+          <t>2021-10-05 14:33:09.192705</t>
         </is>
       </c>
     </row>
@@ -576,7 +577,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:07.228715</t>
+          <t>2021-10-05 14:33:09.192707</t>
         </is>
       </c>
     </row>
@@ -606,7 +607,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:07.228718</t>
+          <t>2021-10-05 14:33:09.192710</t>
         </is>
       </c>
     </row>
@@ -636,7 +637,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:07.228720</t>
+          <t>2021-10-05 14:33:09.192713</t>
         </is>
       </c>
     </row>
@@ -666,7 +667,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:07.228723</t>
+          <t>2021-10-05 14:33:09.192716</t>
         </is>
       </c>
     </row>
@@ -696,7 +697,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:07.228725</t>
+          <t>2021-10-05 14:33:09.192718</t>
         </is>
       </c>
     </row>
@@ -726,7 +727,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:07.228728</t>
+          <t>2021-10-05 14:33:09.192721</t>
         </is>
       </c>
     </row>
@@ -756,7 +757,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:07.228731</t>
+          <t>2021-10-05 14:33:09.192724</t>
         </is>
       </c>
     </row>
@@ -786,7 +787,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:07.228734</t>
+          <t>2021-10-05 14:33:09.192726</t>
         </is>
       </c>
     </row>
@@ -816,7 +817,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:07.228736</t>
+          <t>2021-10-05 14:33:09.192729</t>
         </is>
       </c>
     </row>
@@ -846,7 +847,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:07.228739</t>
+          <t>2021-10-05 14:33:09.192731</t>
         </is>
       </c>
     </row>
@@ -876,7 +877,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:07.228741</t>
+          <t>2021-10-05 14:33:09.192733</t>
         </is>
       </c>
     </row>
@@ -906,7 +907,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:07.228744</t>
+          <t>2021-10-05 14:33:09.192736</t>
         </is>
       </c>
     </row>
@@ -936,7 +937,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:07.228746</t>
+          <t>2021-10-05 14:33:09.192738</t>
         </is>
       </c>
     </row>
@@ -966,7 +967,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:07.228749</t>
+          <t>2021-10-05 14:33:09.192741</t>
         </is>
       </c>
     </row>
@@ -996,7 +997,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:07.228752</t>
+          <t>2021-10-05 14:33:09.192744</t>
         </is>
       </c>
     </row>
@@ -1026,7 +1027,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:07.228755</t>
+          <t>2021-10-05 14:33:09.192746</t>
         </is>
       </c>
     </row>
@@ -1056,7 +1057,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:07.228757</t>
+          <t>2021-10-05 14:33:09.192749</t>
         </is>
       </c>
     </row>
@@ -1086,7 +1087,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:07.228760</t>
+          <t>2021-10-05 14:33:09.192751</t>
         </is>
       </c>
     </row>
@@ -1116,7 +1117,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:07.228762</t>
+          <t>2021-10-05 14:33:09.192754</t>
         </is>
       </c>
     </row>
@@ -1146,7 +1147,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:07.228765</t>
+          <t>2021-10-05 14:33:09.192756</t>
         </is>
       </c>
     </row>
@@ -1176,7 +1177,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:07.228768</t>
+          <t>2021-10-05 14:33:09.192759</t>
         </is>
       </c>
     </row>
@@ -1206,7 +1207,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:07.228771</t>
+          <t>2021-10-05 14:33:09.192762</t>
         </is>
       </c>
     </row>
@@ -1236,7 +1237,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:07.228773</t>
+          <t>2021-10-05 14:33:09.192764</t>
         </is>
       </c>
     </row>
@@ -1266,7 +1267,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:07.228776</t>
+          <t>2021-10-05 14:33:09.192767</t>
         </is>
       </c>
     </row>
@@ -1296,7 +1297,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:07.228779</t>
+          <t>2021-10-05 14:33:09.192769</t>
         </is>
       </c>
     </row>
@@ -1326,7 +1327,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:07.228781</t>
+          <t>2021-10-05 14:33:09.192771</t>
         </is>
       </c>
     </row>
@@ -1356,7 +1357,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:07.228784</t>
+          <t>2021-10-05 14:33:09.192774</t>
         </is>
       </c>
     </row>
@@ -1386,7 +1387,7 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:07.228786</t>
+          <t>2021-10-05 14:33:09.192776</t>
         </is>
       </c>
     </row>
@@ -1416,7 +1417,7 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:07.228789</t>
+          <t>2021-10-05 14:33:09.192779</t>
         </is>
       </c>
     </row>
@@ -1446,7 +1447,7 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:07.228792</t>
+          <t>2021-10-05 14:33:09.192782</t>
         </is>
       </c>
     </row>
@@ -1476,7 +1477,7 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:07.228794</t>
+          <t>2021-10-05 14:33:09.192784</t>
         </is>
       </c>
     </row>
@@ -1506,7 +1507,7 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:07.228797</t>
+          <t>2021-10-05 14:33:09.192787</t>
         </is>
       </c>
     </row>
@@ -1536,7 +1537,7 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:07.228800</t>
+          <t>2021-10-05 14:33:09.192789</t>
         </is>
       </c>
     </row>
@@ -1566,7 +1567,7 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:07.228802</t>
+          <t>2021-10-05 14:33:09.192792</t>
         </is>
       </c>
     </row>
@@ -1596,7 +1597,7 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:07.228805</t>
+          <t>2021-10-05 14:33:09.192794</t>
         </is>
       </c>
     </row>
@@ -1626,7 +1627,7 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:07.228807</t>
+          <t>2021-10-05 14:33:09.192796</t>
         </is>
       </c>
     </row>
@@ -1656,7 +1657,7 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:07.228810</t>
+          <t>2021-10-05 14:33:09.192799</t>
         </is>
       </c>
     </row>
@@ -1686,7 +1687,7 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:07.228813</t>
+          <t>2021-10-05 14:33:09.192802</t>
         </is>
       </c>
     </row>
@@ -1716,7 +1717,7 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:07.228815</t>
+          <t>2021-10-05 14:33:09.192804</t>
         </is>
       </c>
     </row>
@@ -1746,7 +1747,7 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:07.228818</t>
+          <t>2021-10-05 14:33:09.192807</t>
         </is>
       </c>
     </row>
@@ -1776,7 +1777,7 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:07.228821</t>
+          <t>2021-10-05 14:33:09.192809</t>
         </is>
       </c>
     </row>
@@ -1806,7 +1807,7 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:07.228824</t>
+          <t>2021-10-05 14:33:09.192811</t>
         </is>
       </c>
     </row>
@@ -1836,7 +1837,7 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:07.228826</t>
+          <t>2021-10-05 14:33:09.192814</t>
         </is>
       </c>
     </row>
@@ -1866,7 +1867,7 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:07.228829</t>
+          <t>2021-10-05 14:33:09.192816</t>
         </is>
       </c>
     </row>
@@ -1896,7 +1897,7 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:07.228831</t>
+          <t>2021-10-05 14:33:09.192819</t>
         </is>
       </c>
     </row>
@@ -1926,7 +1927,7 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:07.228834</t>
+          <t>2021-10-05 14:33:09.192821</t>
         </is>
       </c>
     </row>
@@ -1956,7 +1957,7 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:07.228836</t>
+          <t>2021-10-05 14:33:09.192824</t>
         </is>
       </c>
     </row>
@@ -1986,7 +1987,7 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:07.228839</t>
+          <t>2021-10-05 14:33:09.192826</t>
         </is>
       </c>
     </row>
@@ -2016,7 +2017,7 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:07.228841</t>
+          <t>2021-10-05 14:33:09.192828</t>
         </is>
       </c>
     </row>
@@ -2046,7 +2047,7 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:07.228844</t>
+          <t>2021-10-05 14:33:09.192831</t>
         </is>
       </c>
     </row>
@@ -2076,7 +2077,7 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:07.228847</t>
+          <t>2021-10-05 14:33:09.192834</t>
         </is>
       </c>
     </row>
@@ -2106,7 +2107,7 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:07.228849</t>
+          <t>2021-10-05 14:33:09.192836</t>
         </is>
       </c>
     </row>
@@ -2136,7 +2137,7 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:07.228852</t>
+          <t>2021-10-05 14:33:09.192838</t>
         </is>
       </c>
     </row>
@@ -2166,7 +2167,7 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:07.228854</t>
+          <t>2021-10-05 14:33:09.192841</t>
         </is>
       </c>
     </row>
@@ -2196,7 +2197,7 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:07.228857</t>
+          <t>2021-10-05 14:33:09.192843</t>
         </is>
       </c>
     </row>
@@ -2226,7 +2227,7 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:07.228859</t>
+          <t>2021-10-05 14:33:09.192846</t>
         </is>
       </c>
     </row>
@@ -2256,7 +2257,7 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:07.228862</t>
+          <t>2021-10-05 14:33:09.192848</t>
         </is>
       </c>
     </row>
@@ -2286,7 +2287,7 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:07.228864</t>
+          <t>2021-10-05 14:33:09.192851</t>
         </is>
       </c>
     </row>
@@ -2316,7 +2317,7 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:07.228867</t>
+          <t>2021-10-05 14:33:09.192853</t>
         </is>
       </c>
     </row>
@@ -2346,7 +2347,7 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:07.228869</t>
+          <t>2021-10-05 14:33:09.192856</t>
         </is>
       </c>
     </row>
@@ -2376,7 +2377,7 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:07.228872</t>
+          <t>2021-10-05 14:33:09.192858</t>
         </is>
       </c>
     </row>
@@ -2406,7 +2407,7 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:07.228875</t>
+          <t>2021-10-05 14:33:09.192862</t>
         </is>
       </c>
     </row>
@@ -2436,7 +2437,7 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:07.228878</t>
+          <t>2021-10-05 14:33:09.192864</t>
         </is>
       </c>
     </row>
@@ -2466,7 +2467,7 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:07.228881</t>
+          <t>2021-10-05 14:33:09.192867</t>
         </is>
       </c>
     </row>
@@ -2496,7 +2497,7 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:07.228883</t>
+          <t>2021-10-05 14:33:09.192870</t>
         </is>
       </c>
     </row>
@@ -2526,7 +2527,7 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:07.228885</t>
+          <t>2021-10-05 14:33:09.192872</t>
         </is>
       </c>
     </row>
@@ -2556,7 +2557,7 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:07.228888</t>
+          <t>2021-10-05 14:33:09.192875</t>
         </is>
       </c>
     </row>
@@ -2586,7 +2587,7 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:07.228891</t>
+          <t>2021-10-05 14:33:09.192878</t>
         </is>
       </c>
     </row>
@@ -2616,7 +2617,7 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:07.228893</t>
+          <t>2021-10-05 14:33:09.192880</t>
         </is>
       </c>
     </row>
@@ -2646,7 +2647,7 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:07.228895</t>
+          <t>2021-10-05 14:33:09.192883</t>
         </is>
       </c>
     </row>
@@ -2676,7 +2677,7 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:07.228898</t>
+          <t>2021-10-05 14:33:09.192885</t>
         </is>
       </c>
     </row>
@@ -2706,7 +2707,7 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:07.228900</t>
+          <t>2021-10-05 14:33:09.192888</t>
         </is>
       </c>
     </row>
@@ -2736,7 +2737,7 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:07.228903</t>
+          <t>2021-10-05 14:33:09.192890</t>
         </is>
       </c>
     </row>
@@ -2766,7 +2767,7 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:07.228907</t>
+          <t>2021-10-05 14:33:09.192895</t>
         </is>
       </c>
     </row>
@@ -2796,7 +2797,7 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:07.228910</t>
+          <t>2021-10-05 14:33:09.192898</t>
         </is>
       </c>
     </row>
@@ -2826,7 +2827,7 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:07.228913</t>
+          <t>2021-10-05 14:33:09.192901</t>
         </is>
       </c>
     </row>
@@ -2856,7 +2857,7 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:07.228915</t>
+          <t>2021-10-05 14:33:09.192903</t>
         </is>
       </c>
     </row>
@@ -2886,7 +2887,7 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:07.228918</t>
+          <t>2021-10-05 14:33:09.192906</t>
         </is>
       </c>
     </row>
@@ -2916,7 +2917,91 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:07.228920</t>
+          <t>2021-10-05 14:33:09.192909</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>data_name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>data_id</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>data_version</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>data_version_created</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>panel_query_time</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>panel_get_request</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Anophthalmia_Microphthalmia_Coloboma</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>42</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.9</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>2021-10-04T06:38:56.746356Z</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2021-10-05 14:33:09.188919</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>https://panelapp.agha.umccr.org/api/v1/panels/42/?format=json</t>
         </is>
       </c>
     </row>
